--- a/CL_Jartest_Data/Cl Jar test combined_template.xlsx
+++ b/CL_Jartest_Data/Cl Jar test combined_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NotOneDrive\dashpivottable\dash-pivottable\CL_Jartest_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9554EC1-0618-4B6C-8B64-BCBD2A610C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29239686-EDF7-46EB-8520-E72DDC1C78BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,12 +417,6 @@
     <t>2021 test</t>
   </si>
   <si>
-    <t>Floc$Coag</t>
-  </si>
-  <si>
-    <t>Procedure$Test$Jar</t>
-  </si>
-  <si>
     <t xml:space="preserve">project owner </t>
   </si>
   <si>
@@ -444,9 +438,6 @@
     <t>KPI</t>
   </si>
   <si>
-    <t>sheetname$Test$Jar</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -454,6 +445,15 @@
   </si>
   <si>
     <t>column names</t>
+  </si>
+  <si>
+    <t>Sheetname$Test$Jar</t>
+  </si>
+  <si>
+    <t>Procedure$Coagulant:Flocculant</t>
+  </si>
+  <si>
+    <t>Coag$Floc</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,10 +1143,10 @@
         <v>92</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>96</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1205,32 +1205,32 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="F5" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -7620,7 +7620,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
